--- a/report/reliability/by-nivel/Graduação (licenciatura).xlsx
+++ b/report/reliability/by-nivel/Graduação (licenciatura).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.765791988791733</v>
+        <v>0.7381342032404301</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7816726661797228</v>
+        <v>0.7709073083580423</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8864594762462579</v>
+        <v>0.8879268860596485</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.22979554084896017</v>
+        <v>0.20562395754830065</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.5802785317901638</v>
+        <v>3.3650454007623756</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.009796390094678097</v>
+        <v>0.010382041823952961</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.372910334346505</v>
+        <v>1.805178863689502</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7445697391043712</v>
+        <v>0.6280991109635902</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.199863943539618</v>
+        <v>0.14374806695835157</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7373930048056133</v>
+        <v>0.7380877867318938</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7503384020237182</v>
+        <v>0.7641049172460896</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8607108556894763</v>
+        <v>0.88419271002294</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.21458987957682862</v>
+        <v>0.21255568008026474</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.005421771333054</v>
+        <v>3.2391727217273827</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.011014421698647636</v>
+        <v>0.010599646475137609</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.042126563862085076</v>
+        <v>0.0619060268953863</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.18894101876393601</v>
+        <v>0.1777938113225886</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.739520858037069</v>
+        <v>0.7126320068796632</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7542528546509119</v>
+        <v>0.7449271671825688</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8639109783932922</v>
+        <v>0.8715138170244323</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.21815157834184584</v>
+        <v>0.19573465235594448</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.0692232602721883</v>
+        <v>2.9204488731881204</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.010924935504795756</v>
+        <v>0.01136500316437368</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04265819227112037</v>
+        <v>0.06228044819062937</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.1992940332937076</v>
+        <v>0.13233095240191595</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7418448828870065</v>
+        <v>0.7169858571709974</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7541839790617777</v>
+        <v>0.7485745387148652</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8619080820166394</v>
+        <v>0.8725819622813004</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.21808821263272446</v>
+        <v>0.19878867136277437</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.0680830980146583</v>
+        <v>2.9773219263021535</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.010829620816705233</v>
+        <v>0.011181621364857926</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04214058039389617</v>
+        <v>0.0621813143313536</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1992940332937076</v>
+        <v>0.13233095240191595</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7449846056630148</v>
+        <v>0.7235906144114795</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7594412873196436</v>
+        <v>0.7451591207856813</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8653272760489716</v>
+        <v>0.8675926029911719</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.22299863695821637</v>
+        <v>0.1959269533098282</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.1569893223063366</v>
+        <v>2.924017226290488</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.010694570359279777</v>
+        <v>0.011104377404305496</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04234926362096413</v>
+        <v>0.05138748072169496</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.20228802552587238</v>
+        <v>0.14363011101874312</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7434482052675621</v>
+        <v>0.7009959568033313</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7658796607088788</v>
+        <v>0.74240118656984</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8471077752081109</v>
+        <v>0.865550440053654</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.22922269932258232</v>
+        <v>0.1936570623522967</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.271307666082491</v>
+        <v>2.8820054591249877</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.010765222442964089</v>
+        <v>0.011884363644092715</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.040147485271904294</v>
+        <v>0.05131629553123677</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.20043385378552844</v>
+        <v>0.13779376667853244</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7449240529810791</v>
+        <v>0.7025076627179404</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7659630787813867</v>
+        <v>0.7426260266137898</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8473078873863031</v>
+        <v>0.8658822717656338</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.22930491515340465</v>
+        <v>0.19384076886279086</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.2728300936154517</v>
+        <v>2.885396751051515</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.01070687862063228</v>
+        <v>0.011832741077691201</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04020116129587319</v>
+        <v>0.051400450538497684</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.20228802552587238</v>
+        <v>0.1379117226181409</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7698685596336228</v>
+        <v>0.7380716947989516</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7897159532594862</v>
+        <v>0.7772140381419336</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8762552433247527</v>
+        <v>0.887331775800162</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.25451387577135554</v>
+        <v>0.22523728387170827</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.7554724930416583</v>
+        <v>3.488613158835768</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.00960592269923299</v>
+        <v>0.010570328589553441</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04069021077864609</v>
+        <v>0.057066882812224155</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.21395325082450997</v>
+        <v>0.1777938113225886</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7803247294598745</v>
+        <v>0.7359610447248035</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7902154524845268</v>
+        <v>0.7679091846688665</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.876324749299419</v>
+        <v>0.8763580589434168</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2550854969436644</v>
+        <v>0.21612986422066705</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.7667953233125653</v>
+        <v>3.308658223175524</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.00908993948469826</v>
+        <v>0.010258888638320116</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04033737372673446</v>
+        <v>0.05850128612577996</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.21395325082450997</v>
+        <v>0.1777938113225886</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7530619075511735</v>
+        <v>0.7489749057550205</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7709524292628888</v>
+        <v>0.7705797910066261</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8872482170747976</v>
+        <v>0.8839148942452755</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.23429816774998538</v>
+        <v>0.21868966808424828</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.3659052867569916</v>
+        <v>3.358813917865806</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.010438985617175245</v>
+        <v>0.00961328572648157</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.0492112144657291</v>
+        <v>0.05945524773968483</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.1992940332937076</v>
+        <v>0.1777938113225886</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7548680177943436</v>
+        <v>0.7196728502898493</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7722467090345447</v>
+        <v>0.7597899986588099</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.888182814595559</v>
+        <v>0.8889243835276023</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.23561829288113495</v>
+        <v>0.208601133780842</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.3907159179169724</v>
+        <v>3.163023997404745</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.010346584421922782</v>
+        <v>0.011180675415408781</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.049043013651968344</v>
+        <v>0.06736410206840374</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.19668946816177754</v>
+        <v>0.13779376667853244</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7413098157481732</v>
+        <v>0.7261522526370046</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7582203599167091</v>
+        <v>0.7647752617642578</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8594356330727979</v>
+        <v>0.8911103330031926</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.221844800273045</v>
+        <v>0.21317942998754447</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.1359975540351894</v>
+        <v>3.25125353523744</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.010860465309915461</v>
+        <v>0.010879406210996213</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04431582133538879</v>
+        <v>0.06708444624587732</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.18894101876393601</v>
+        <v>0.14449498569650593</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7430931199807949</v>
+        <v>0.7080298671367933</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7603155290701011</v>
+        <v>0.7500271229482108</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8612931993797771</v>
+        <v>0.8639608937521375</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.22382993458273465</v>
+        <v>0.20002314675737765</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.172151813258157</v>
+        <v>3.000434014258359</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.010797416663978212</v>
+        <v>0.01156496852577496</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.044544533169873564</v>
+        <v>0.06313380365535384</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.18894101876393601</v>
+        <v>0.13233095240191595</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7092916009817134</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7508733037236761</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8653360750630881</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.20074713310162157</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.0140218408822403</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.011528584854554068</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06342091762191232</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.13779376667853244</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>1316.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6309420204426275</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6707356068239588</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6546671972068334</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5422907291151776</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.2667173252279635</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.163246479360774</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>1316.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6061132141966568</v>
+        <v>0.3374392010777665</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6406277187090179</v>
+        <v>0.44831830733655575</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6185723520714643</v>
+        <v>0.39348184744252235</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5017354493422911</v>
+        <v>0.3141376164966698</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.7477203647416415</v>
+        <v>0.952887537993921</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2935179610894498</v>
+        <v>0.21195994197129286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>1316.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5966319990201217</v>
+        <v>0.5611579227712551</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6411633641429579</v>
+        <v>0.6136733084365926</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6227318077801723</v>
+        <v>0.588651246087378</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5102215456018534</v>
+        <v>0.45138401689632146</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.371580547112462</v>
+        <v>3.2667173252279635</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0769966381220697</v>
+        <v>1.163246479360774</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>1316.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5617017119416089</v>
+        <v>0.5323761917933989</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5996543775770825</v>
+        <v>0.5836515211528255</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5747146488373607</v>
+        <v>0.5568452623197305</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4481970899772638</v>
+        <v>0.40409254977373243</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.7059270516717326</v>
+        <v>3.7477203647416415</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3124712617522127</v>
+        <v>1.2935179610894498</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>1316.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5889843197995033</v>
+        <v>0.6164237217520513</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5470408957387782</v>
+        <v>0.6117829409179062</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5675530904680589</v>
+        <v>0.6366032322219111</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.454329159228107</v>
+        <v>0.5823663067184991</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.8427051671732523</v>
+        <v>0.24012158054711247</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5799215386026548</v>
+        <v>0.4273195085568191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>1316.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5896306205329805</v>
+        <v>0.6477612270218303</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5463459057356963</v>
+        <v>0.6340965490951824</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5667358860124628</v>
+        <v>0.6626681157709623</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.44495951507758946</v>
+        <v>0.5121418204436566</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.8951367781155015</v>
+        <v>0.8427051671732523</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.6827301904420235</v>
+        <v>1.5799215386026548</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>1316.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.36359804499754933</v>
+        <v>0.6472462592899545</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3332485564500257</v>
+        <v>0.6322906671513029</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.27458018710253657</v>
+        <v>0.660228179474785</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.21587548183035593</v>
+        <v>0.5009021787430817</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.6109422492401215</v>
+        <v>0.8951367781155015</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.408502813674859</v>
+        <v>1.6827301904420235</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>1316.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.36755305644942926</v>
+        <v>0.26627196475617193</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.32841650651109056</v>
+        <v>0.3236549013157371</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.2697759559986685</v>
+        <v>0.2660518885082276</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.1824523967214302</v>
+        <v>0.2282922407936074</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.731003039513678</v>
+        <v>0.8768996960486323</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7420705909109968</v>
+        <v>0.3286772091310697</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>1316.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5191936312780563</v>
+        <v>0.41122967340306266</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5041367520632732</v>
+        <v>0.4131831638629223</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.41217286270468406</v>
+        <v>0.3799723369033216</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3760558616451209</v>
+        <v>0.2533557374634361</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.4369300911854104</v>
+        <v>2.6109422492401215</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5397805378087959</v>
+        <v>1.408502813674859</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>1316.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.488099938385095</v>
+        <v>0.40809086421920676</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4929774198545093</v>
+        <v>0.38801963773268605</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3976413334798148</v>
+        <v>0.33806532820473645</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.354939522643211</v>
+        <v>0.20861723975429913</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2188449848024314</v>
+        <v>2.731003039513678</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4004270517534334</v>
+        <v>1.7420705909109968</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>1316.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5915452295069181</v>
+        <v>0.5400832650903505</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6094080339393959</v>
+        <v>0.4871925080339224</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5930910856816329</v>
+        <v>0.3980023774975298</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.48442106436836435</v>
+        <v>0.385395684042115</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.8928571428571428</v>
+        <v>1.4369300911854104</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2963513750373037</v>
+        <v>1.5397805378087959</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>1316.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5768598875688529</v>
+        <v>0.4792489964444869</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5926272207284905</v>
+        <v>0.44218668635032626</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5736512105068706</v>
+        <v>0.3470027706483791</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.47315093568595484</v>
+        <v>0.33087867208298255</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.2188449848024314</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4004270517534334</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>1316.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5956364770930959</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5715163125568928</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5541298719536074</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4777848389354142</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.8928571428571428</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2963513750373037</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>1316.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5863765131016783</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5643993417801441</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5448589952484533</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4732779106367854</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.7545592705167172</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2344000388042458</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.04711246200607903</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.0729483282674772</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.00911854103343465</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.37537993920972645</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4278115501519757</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.067629179331307</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.04711246200607903</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.009878419452887538</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.05547112462006079</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.29711246200607905</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.21656534954407294</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3738601823708207</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.028875379939209727</v>
+        <v>0.04711246200607903</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.060790273556231005</v>
+        <v>0.952887537993921</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.022796352583586626</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.36930091185410335</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4338905775075988</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08434650455927052</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.028875379939209727</v>
+        <v>0.04711246200607903</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.03343465045592705</v>
+        <v>0.0729483282674772</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.0668693009118541</v>
+        <v>0.00911854103343465</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.3609422492401216</v>
+        <v>0.37537993920972645</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.09346504559270517</v>
+        <v>0.4278115501519757</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.41641337386018235</v>
+        <v>0.067629179331307</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7598784194528876</v>
+        <v>0.04711246200607903</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.018996960486322188</v>
+        <v>0.009878419452887538</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.005319148936170213</v>
+        <v>0.05547112462006079</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.08130699088145897</v>
+        <v>0.29711246200607905</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.1033434650455927</v>
+        <v>0.21656534954407294</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.03115501519756839</v>
+        <v>0.3738601823708207</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7598784194528876</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.011398176291793313</v>
+        <v>0.24012158054711247</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.013677811550151976</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.0790273556231003</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.060790273556231005</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.07522796352583587</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,22 +5105,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.12310030395136778</v>
+        <v>0.7598784194528876</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.1534954407294833</v>
+        <v>0.018996960486322188</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.03115501519756839</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.40501519756838905</v>
+        <v>0.08130699088145897</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2560790273556231</v>
+        <v>0.1033434650455927</v>
       </c>
       <c r="G49" t="n" s="114">
         <v>0.03115501519756839</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.12310030395136778</v>
+        <v>0.7598784194528876</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.1778115501519757</v>
+        <v>0.011398176291793313</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.17857142857142858</v>
+        <v>0.013677811550151976</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.12234042553191489</v>
+        <v>0.0790273556231003</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.16185410334346503</v>
+        <v>0.060790273556231005</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.23632218844984804</v>
+        <v>0.07522796352583587</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.45364741641337386</v>
+        <v>0.12310030395136778</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.13753799392097266</v>
+        <v>0.8768996960486323</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05319148936170213</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.22948328267477203</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.12613981762917933</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2013677811550152</v>
+        <v>0.12310030395136778</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.13297872340425532</v>
+        <v>0.1534954407294833</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.06838905775075987</v>
+        <v>0.03115501519756839</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4399696048632219</v>
+        <v>0.40501519756838905</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.15729483282674772</v>
+        <v>0.2560790273556231</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.03115501519756839</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.21504559270516718</v>
+        <v>0.12310030395136778</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.13221884498480244</v>
+        <v>0.1778115501519757</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3191489361702128</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.21200607902735563</v>
+        <v>0.12234042553191489</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.12158054711246201</v>
+        <v>0.16185410334346503</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.23632218844984804</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.23556231003039513</v>
+        <v>0.45364741641337386</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.12234042553191489</v>
+        <v>0.13753799392097266</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3791793313069909</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.1778115501519757</v>
+        <v>0.22948328267477203</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.0851063829787234</v>
+        <v>0.12613981762917933</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2013677811550152</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.13297872340425532</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.06838905775075987</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4399696048632219</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.15729483282674772</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.21504559270516718</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.13221884498480244</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3191489361702128</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.21200607902735563</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.12158054711246201</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.23556231003039513</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.12234042553191489</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.3791793313069909</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.1778115501519757</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8539156968432042</v>
+        <v>0.87578047719393</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.85707786117935</v>
+        <v>0.9830861171955793</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8666831905669723</v>
+        <v>0.9750384883995549</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5998726252970933</v>
+        <v>0.9509186635325279</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.996816646124218</v>
+        <v>58.123029972669976</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.006722194908139747</v>
+        <v>0.001139702384432227</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.5229863221884496</v>
+        <v>0.6593211752786221</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0134521674111046</v>
+        <v>1.212955028917266</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.588641256656188</v>
+        <v>0.9492085993413806</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8106599220897137</v>
+        <v>0.9769736106636533</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8155943604475094</v>
+        <v>0.9779660351984187</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7673459055104109</v>
+        <v>0.9568821280692781</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5958413500075764</v>
+        <v>0.9568821280692781</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.422827644679233</v>
+        <v>44.384478417984724</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.00904502625720293</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.015309859473845134</v>
-      </c>
+        <v>0.0012405673858267615</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5699341027712895</v>
+        <v>0.9568821280692781</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8146776848336108</v>
+        <v>0.622279179373294</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8206771176902089</v>
+        <v>0.97260199900739</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7776926657857474</v>
+        <v>0.9466652631869252</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.604040537321365</v>
+        <v>0.946665263186925</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.576533162524347</v>
+        <v>35.49901320427442</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.008989985399279863</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.016415309367068084</v>
-      </c>
+        <v>0.0035883687369720843</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6073484105410865</v>
+        <v>0.946665263186925</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8103759299397294</v>
+        <v>0.6472424858371932</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8128296763360987</v>
+        <v>0.9739425525437444</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.766001652943453</v>
+        <v>0.9492085993413805</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5914324646633448</v>
+        <v>0.9492085993413806</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.342727310744434</v>
+        <v>37.37674437140365</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.009190211498469327</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.016701274042099163</v>
-      </c>
+        <v>0.003512689797398829</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5699341027712895</v>
+        <v>0.9492085993413806</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8220484664058685</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.823212288457861</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7781733896494667</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6081761491960874</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.656501751603028</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.008458779338175428</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.014757147621162632</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6073484105410865</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>1316.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.967328206452574</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.981482323376099</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9659783540196368</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9582724406859705</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.24012158054711247</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4273195085568191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>1316.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8348232445991378</v>
+        <v>0.9881408765273534</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8402169021590997</v>
+        <v>0.9849450682187202</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7858715965113611</v>
+        <v>0.9747277690580864</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7054011147439226</v>
+        <v>0.9636649385960334</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.2667173252279635</v>
+        <v>0.8427051671732523</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.163246479360774</v>
+        <v>1.5799215386026548</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>1316.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8425180695171567</v>
+        <v>0.9890604140886512</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8328664731367696</v>
+        <v>0.9840830695279962</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7714273236527306</v>
+        <v>0.972747024458504</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.696890771982007</v>
+        <v>0.9629377866034516</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.7477203647416415</v>
+        <v>0.8951367781155015</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2935179610894498</v>
+        <v>1.6827301904420235</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>1316.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8318873005488306</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8441693912961473</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7908754507813255</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7141770232030347</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.371580547112462</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0769966381220697</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>1316.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8357907864291548</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8291589689188902</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.767195111504961</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6820216490470677</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.7059270516717326</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3124712617522127</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7598784194528876</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.24012158054711247</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7598784194528876</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.018996960486322188</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.005319148936170213</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.08130699088145897</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.1033434650455927</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.03115501519756839</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.04711246200607903</v>
+        <v>0.7598784194528876</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.0729483282674772</v>
+        <v>0.011398176291793313</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.00911854103343465</v>
+        <v>0.013677811550151976</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.37537993920972645</v>
+        <v>0.0790273556231003</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4278115501519757</v>
+        <v>0.060790273556231005</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.067629179331307</v>
+        <v>0.07522796352583587</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.04711246200607903</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.009878419452887538</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.05547112462006079</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.29711246200607905</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.21656534954407294</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3738601823708207</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.028875379939209727</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.060790273556231005</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.022796352583586626</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.36930091185410335</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4338905775075988</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08434650455927052</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.028875379939209727</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.03343465045592705</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.0668693009118541</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3609422492401216</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.09346504559270517</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.41641337386018235</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8217275326896032</v>
+        <v>0.7265794229491551</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8326025833593842</v>
+        <v>0.8563344126918484</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7132126313550867</v>
+        <v>0.8068759993309919</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7132126313550868</v>
+        <v>0.6652013324753702</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.973807840457253</v>
+        <v>5.960609139160632</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.009399584337521718</v>
+        <v>0.006924795425143374</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.6709726443768997</v>
+        <v>2.0729483282674774</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4593428269956215</v>
+        <v>1.0510811881482627</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7132126313550867</v>
+        <v>0.6947990533922098</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.7132126313550868</v>
+        <v>0.8217275326896032</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.7132126313550868</v>
+        <v>0.8326025833593842</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.5086722575244467</v>
+        <v>0.7132126313550867</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.7132126313550868</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7132126313550868</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.973807840457253</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.009399584337521718</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.7132126313550868</v>
+        <v>0.7132126313550867</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5086722575244467</v>
+        <v>0.35269103279832525</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7132126313550868</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5086722575244467</v>
-      </c>
+        <v>0.7402307355436155</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5875923126788141</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.5875923126788141</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.8495701255985226</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.010771571018015144</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7132126313550868</v>
+        <v>0.5875923126788141</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.47038701177759035</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8199190954249604</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.6947990533922099</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.6947990533922099</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>4.553059622617013</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.009767862038338682</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.6947990533922098</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>1316.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9082751204123867</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9255302889033635</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7816280729603861</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7132126313550866</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.6109422492401215</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.408502813674859</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>1316.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9410511834897748</v>
+        <v>0.7392168953958329</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9255302889033635</v>
+        <v>0.8632051133307382</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7816280729603863</v>
+        <v>0.7504498698039479</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.713212631355087</v>
+        <v>0.6860121117416861</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8768996960486323</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.3286772091310697</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>1316.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9131340851900368</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9107149764644481</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8558823246597492</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7529642777331753</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.6109422492401215</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.408502813674859</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>1316.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9322974043328787</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8701691664237147</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7687547381299724</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7241839529213389</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.731003039513678</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7420705909109968</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.12310030395136778</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8768996960486323</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.12310030395136778</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.1534954407294833</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.03115501519756839</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.40501519756838905</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2560790273556231</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.03115501519756839</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.12310030395136778</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.1778115501519757</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.17857142857142858</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.12234042553191489</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.16185410334346503</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.23632218844984804</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8923782061423062</v>
+        <v>0.7230865256852343</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8929705458367301</v>
+        <v>0.8569986310200062</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8066366639825919</v>
+        <v>0.8044000052413045</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8066366639825922</v>
+        <v>0.6664049816717191</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.34322245981496</v>
+        <v>5.992940047587251</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.005913105679363132</v>
+        <v>0.006269236009542968</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.8237082066869301</v>
+        <v>2.655775075987842</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2026903630896528</v>
+        <v>0.8117012331082941</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8066366639825922</v>
+        <v>0.6444761644887991</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8066366639825922</v>
+        <v>0.8412332758395809</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8066366639825922</v>
+        <v>0.8439753427307526</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6506627076809647</v>
+        <v>0.7300669042167185</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8066366639825922</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8066366639825922</v>
-      </c>
+        <v>0.7300669042167185</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.409243368978068</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.008648984053417989</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8066366639825922</v>
+        <v>0.7300669042167185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6506627076809647</v>
+        <v>0.34119719842135043</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8066366639825922</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6506627076809647</v>
-      </c>
+        <v>0.7838072431887642</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6444761644887991</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6444761644887991</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>3.625501865786968</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.009057253505557462</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8066366639825922</v>
+        <v>0.6444761644887991</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.361102540194026</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7689821993208259</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6246718763096397</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6246718763096397</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.328670765023641</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.009946140985696095</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6246718763096398</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>1316.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9528901929795726</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9504306034589249</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8536097971741996</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8066366639825922</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.8928571428571428</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2963513750373037</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>1316.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9479100595169636</v>
+        <v>0.7277919201534684</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9504306034589249</v>
+        <v>0.8577535464862882</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8536097971741997</v>
+        <v>0.7314086557694631</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8066366639825919</v>
+        <v>0.6826998330881746</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.7545592705167172</v>
+        <v>0.952887537993921</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2344000388042458</v>
+        <v>0.21195994197129286</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>1316.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9198813783728341</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8901074340370428</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.812751141459059</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.74812663378359</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.2667173252279635</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.163246479360774</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>1316.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9360459056327808</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8975935910069218</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8285047471648246</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7547580627801661</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.7477203647416415</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2935179610894498</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.21504559270516718</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.13221884498480244</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3191489361702128</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.21200607902735563</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.12158054711246201</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.04711246200607903</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.952887537993921</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.23556231003039513</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.12234042553191489</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3791793313069909</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.1778115501519757</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.0851063829787234</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.04711246200607903</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.0729483282674772</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.00911854103343465</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.37537993920972645</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4278115501519757</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.067629179331307</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.04711246200607903</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.009878419452887538</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.05547112462006079</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.29711246200607905</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.21656534954407294</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.3738601823708207</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9769736106636533</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9779660351984187</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9568821280692781</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9568821280692781</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>44.384478417984724</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0012405673858267615</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.868920972644377</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.6136628781267246</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9568821280692781</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5795559432546684</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5814069566251396</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4098476017068017</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.4098476017068018</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.388955133935361</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.02305511554587589</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.827887537993921</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2348755043716155</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.40984760170680173</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9568821280692781</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9568821280692781</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9156234070183904</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9568821280692781</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9568821280692781</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9568821280692781</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.40984760170680173</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.40984760170680173</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.16797505662481704</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.40984760170680173</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.40984760170680173</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.40984760170680173</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9156234070183904</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9568821280692781</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9156234070183904</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9568821280692781</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.16797505662481704</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.40984760170680173</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.16797505662481704</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.40984760170680173</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>1316.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9884642038436714</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.989161798713759</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.967601554124338</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9568821280692784</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.8427051671732523</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.5799215386026548</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8558523506427785</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8395974040296937</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.537504724784638</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.4098476017068019</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.4369300911854104</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5397805378087959</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>1316.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9898377529112827</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.989161798713759</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.967601554124338</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9568821280692784</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.8951367781155015</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.6827301904420235</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8225535307556925</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8395974040296937</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.537504724784638</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.4098476017068018</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.2188449848024314</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.4004270517534334</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7598784194528876</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.018996960486322188</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.005319148936170213</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.08130699088145897</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.1033434650455927</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.03115501519756839</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.45364741641337386</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.13753799392097266</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.05319148936170213</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.22948328267477203</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.12613981762917933</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7598784194528876</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.011398176291793313</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.013677811550151976</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.0790273556231003</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.060790273556231005</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.07522796352583587</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.2013677811550152</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.13297872340425532</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.06838905775075987</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4399696048632219</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.15729483282674772</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5795559432546684</v>
+        <v>0.8923782061423062</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5814069566251396</v>
+        <v>0.8929705458367301</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.4098476017068017</v>
+        <v>0.8066366639825919</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.4098476017068018</v>
+        <v>0.8066366639825922</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.388955133935361</v>
+        <v>8.34322245981496</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.02305511554587589</v>
+        <v>0.005913105679363132</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.827887537993921</v>
+        <v>1.8237082066869301</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2348755043716155</v>
+        <v>1.2026903630896528</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.40984760170680173</v>
+        <v>0.8066366639825922</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.40984760170680173</v>
+        <v>0.8066366639825922</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.40984760170680173</v>
+        <v>0.8066366639825922</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.16797505662481704</v>
+        <v>0.6506627076809647</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.40984760170680173</v>
+        <v>0.8066366639825922</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.40984760170680173</v>
+        <v>0.8066366639825922</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.40984760170680173</v>
+        <v>0.8066366639825922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.16797505662481704</v>
+        <v>0.6506627076809647</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.40984760170680173</v>
+        <v>0.8066366639825922</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.16797505662481704</v>
+        <v>0.6506627076809647</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.40984760170680173</v>
+        <v>0.8066366639825922</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>1316.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8558523506427785</v>
+        <v>0.9528901929795726</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8395974040296937</v>
+        <v>0.9504306034589249</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.537504724784638</v>
+        <v>0.8536097971741996</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.4098476017068019</v>
+        <v>0.8066366639825922</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.4369300911854104</v>
+        <v>1.8928571428571428</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5397805378087959</v>
+        <v>1.2963513750373037</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>1316.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8225535307556925</v>
+        <v>0.9479100595169636</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8395974040296937</v>
+        <v>0.9504306034589249</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.537504724784638</v>
+        <v>0.8536097971741997</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.4098476017068018</v>
+        <v>0.8066366639825919</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.2188449848024314</v>
+        <v>1.7545592705167172</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.4004270517534334</v>
+        <v>1.2344000388042458</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.45364741641337386</v>
+        <v>0.21504559270516718</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.13753799392097266</v>
+        <v>0.13221884498480244</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05319148936170213</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.22948328267477203</v>
+        <v>0.21200607902735563</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.12613981762917933</v>
+        <v>0.12158054711246201</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.2013677811550152</v>
+        <v>0.23556231003039513</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.13297872340425532</v>
+        <v>0.12234042553191489</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.06838905775075987</v>
+        <v>0.3791793313069909</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4399696048632219</v>
+        <v>0.1778115501519757</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.15729483282674772</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8032608353764142</v>
+        <v>0.7801818719101392</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8120180544178455</v>
+        <v>0.8105186103253649</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8966186173923621</v>
+        <v>0.8988467488991218</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3016593874366625</v>
+        <v>0.2996003663899636</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.31965980511126</v>
+        <v>4.277563151279045</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.008352468088169817</v>
+        <v>0.008690822293459374</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.3132978723404256</v>
+        <v>1.7248480243161095</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8231430477043846</v>
+        <v>0.7356420178366242</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.23040991595995516</v>
+        <v>0.22435455598221976</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7774293580043035</v>
+        <v>0.76654609639545</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7833466344713672</v>
+        <v>0.784994192215624</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8699279616576259</v>
+        <v>0.8757923992970964</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.28660138956165115</v>
+        <v>0.2885958762480352</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.615667970631365</v>
+        <v>3.6510371524609013</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.00945989763644099</v>
+        <v>0.009486701332317292</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.03709025729358024</v>
+        <v>0.04268224624288043</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.22085844809680072</v>
+        <v>0.2314824535958776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7814390251989791</v>
+        <v>0.7426370251411945</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7884916660171135</v>
+        <v>0.7821642910894168</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8738862353001046</v>
+        <v>0.8734771978985433</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2928945535629784</v>
+        <v>0.2851818927989125</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.727946086894673</v>
+        <v>3.5906155836483094</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.009280667591636371</v>
+        <v>0.010122791472785957</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.036700808323294726</v>
+        <v>0.04291645855764774</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.22908678066452332</v>
+        <v>0.22334251857427923</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7824474865767439</v>
+        <v>0.7453780174862736</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.788071579593274</v>
+        <v>0.7824358872944087</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8713894001347349</v>
+        <v>0.8739704836588729</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2923735175864456</v>
+        <v>0.2855070986255261</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.7185743095750583</v>
+        <v>3.596346279559462</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.009258978040943801</v>
+        <v>0.01000837292158482</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.036105556526003134</v>
+        <v>0.043005220049957174</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.2314824535958776</v>
+        <v>0.22977790890244176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7870320324086113</v>
+        <v>0.7838120176406634</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7936818940749953</v>
+        <v>0.8080128386630295</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8750186847716817</v>
+        <v>0.8959396378280595</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2994410356246304</v>
+        <v>0.31862995462301963</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.8468843561577355</v>
+        <v>4.208681627647112</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.009039663464386926</v>
+        <v>0.00892959440967383</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03548108046436471</v>
+        <v>0.05624632018502628</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.23535734602037633</v>
+        <v>0.23750282598033595</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7832131837857154</v>
+        <v>0.7576455181718862</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7927667214058716</v>
+        <v>0.787301158196095</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8683404329789652</v>
+        <v>0.8816862562449016</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2982718666687031</v>
+        <v>0.291421327502385</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.825479801236583</v>
+        <v>3.701483052371002</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.009225893835754236</v>
+        <v>0.00946672470408074</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.038493675766664126</v>
+        <v>0.06123684020716783</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.2260591006756556</v>
+        <v>0.21478411738069408</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7847299865962125</v>
+        <v>0.7649752604553568</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7949667676415951</v>
+        <v>0.7924395951957072</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8703788602082662</v>
+        <v>0.8832252289344321</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.30109345427155654</v>
+        <v>0.2978555112649561</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.877258132730243</v>
+        <v>3.8178745890522454</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.009185946242212039</v>
+        <v>0.00914170906555684</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.03847155704690524</v>
+        <v>0.059543553573010145</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.22163797388084336</v>
+        <v>0.2260591006756556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7846398578291678</v>
+        <v>0.7663677144766837</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7995424934629246</v>
+        <v>0.8027949426502735</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8531817424334116</v>
+        <v>0.9021120656463067</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.30708405759717927</v>
+        <v>0.31144566338188606</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.9885884408875776</v>
+        <v>4.0708638684989955</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.009127958569434392</v>
+        <v>0.009261794118612873</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03161508281063298</v>
+        <v>0.06802878272369839</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.23765891017804858</v>
+        <v>0.21538375451156588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7870753487148147</v>
+        <v>0.7720753858942598</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7997032332704486</v>
+        <v>0.8078897998628952</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8533506791509015</v>
+        <v>0.9042825042369627</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.30729756450949997</v>
+        <v>0.3184578261411957</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.9925918242616443</v>
+        <v>4.205345678086442</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.009018334436964244</v>
+        <v>0.00896944874546482</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03161143467465423</v>
+        <v>0.06659834582678333</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.23765891017804858</v>
+        <v>0.2260591006756556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7961665607984957</v>
+        <v>0.753313854624635</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8056298006555141</v>
+        <v>0.7931317342800427</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8996880281489077</v>
+        <v>0.8717435400985705</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3153197301709296</v>
+        <v>0.2987374118761466</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.144821600083262</v>
+        <v>3.833994216172938</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.008782470238903741</v>
+        <v>0.009636913430018108</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.0440253744452306</v>
+        <v>0.0616475035801249</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.22908678066452332</v>
+        <v>0.2216379738808434</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7964861053062074</v>
+        <v>0.7542798339197359</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.806279066576628</v>
+        <v>0.7942508039127694</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9004883584808505</v>
+        <v>0.8734428552596225</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.31621670481305103</v>
+        <v>0.300171101437574</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.162064740905034</v>
+        <v>3.8602863049634175</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.008745606706166746</v>
+        <v>0.009639346614322052</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04411615227422998</v>
+        <v>0.06181054635226847</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.2314824535958776</v>
+        <v>0.21455288795538174</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>1316.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6645287827577707</v>
+        <v>0.6818204057757344</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6984420152812746</v>
+        <v>0.6731407855344036</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6762812411016542</v>
+        <v>0.696082224341578</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5735559653895459</v>
+        <v>0.6488196895448627</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.2667173252279635</v>
+        <v>0.24012158054711247</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.163246479360774</v>
+        <v>0.4273195085568191</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>1316.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6309445394084995</v>
+        <v>0.7113102884574044</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6612717234535233</v>
+        <v>0.6933558084324485</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6324766289716763</v>
+        <v>0.7200453570330247</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5211966573020634</v>
+        <v>0.5769881910605897</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.7477203647416415</v>
+        <v>0.8427051671732523</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2935179610894498</v>
+        <v>1.5799215386026548</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>1316.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.624474023821186</v>
+        <v>0.7098622694204972</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6643491991551572</v>
+        <v>0.6914301859654557</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6396475127789052</v>
+        <v>0.7174010074864386</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5342579760452993</v>
+        <v>0.5640465159397475</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.371580547112462</v>
+        <v>0.8951367781155015</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0769966381220697</v>
+        <v>1.6827301904420235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>1316.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5888424357544889</v>
+        <v>0.37328940444414627</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6226052198274584</v>
+        <v>0.4953017329672323</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.59145110563257</v>
+        <v>0.4317975507483052</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.469167539359545</v>
+        <v>0.34809475174631604</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.7059270516717326</v>
+        <v>0.952887537993921</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.3124712617522127</v>
+        <v>0.21195994197129286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>1316.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6174220165873758</v>
+        <v>0.5991157972425869</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6295108639960514</v>
+        <v>0.6564106043091055</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6072906315440673</v>
+        <v>0.6234538432361649</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5047430506090816</v>
+        <v>0.4824434309896986</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.8928571428571428</v>
+        <v>3.2667173252279635</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2963513750373037</v>
+        <v>1.163246479360774</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>1316.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6028454253557349</v>
+        <v>0.5597732148904542</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6128452829634409</v>
+        <v>0.6183122438369637</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5879707705812847</v>
+        <v>0.5830950545531156</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.49364287407236773</v>
+        <v>0.4203991343756724</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.7545592705167172</v>
+        <v>3.7477203647416415</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2344000388042458</v>
+        <v>1.2935179610894498</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>1316.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6325449379701336</v>
+        <v>0.589923425772528</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5774620522402738</v>
+        <v>0.5378416615023454</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5954804334285068</v>
+        <v>0.43610557999455557</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.49446491855975594</v>
+        <v>0.4263761282775827</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.8427051671732523</v>
+        <v>1.4369300911854104</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.5799215386026548</v>
+        <v>1.5397805378087959</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>1316.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.632320192776991</v>
+        <v>0.5315034958667715</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5762009832078239</v>
+        <v>0.49632094739909205</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5940893147011317</v>
+        <v>0.38879292336064947</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.48348279690515683</v>
+        <v>0.3735732625297952</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.8951367781155015</v>
+        <v>2.2188449848024314</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.6827301904420235</v>
+        <v>1.4004270517534334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>1316.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5527980494332765</v>
+        <v>0.6343473373731453</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5288184203724974</v>
+        <v>0.6130902967142855</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.42761163945896413</v>
+        <v>0.589046226325173</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.401889838375471</v>
+        <v>0.5098224167970091</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.4369300911854104</v>
+        <v>1.8928571428571428</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5397805378087959</v>
+        <v>1.2963513750373037</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>1316.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.526807013299702</v>
+        <v>0.6250841701822006</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5235204797495114</v>
+        <v>0.6046010735692848</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.41907787407117886</v>
+        <v>0.5782934228111475</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.38693890870951964</v>
+        <v>0.5054867031454939</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.2188449848024314</v>
+        <v>1.7545592705167172</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.4004270517534334</v>
+        <v>1.2344000388042458</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.04711246200607903</v>
+        <v>0.7598784194528876</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.0729483282674772</v>
+        <v>0.24012158054711247</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.00911854103343465</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.37537993920972645</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4278115501519757</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.067629179331307</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.04711246200607903</v>
+        <v>0.7598784194528876</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.009878419452887538</v>
+        <v>0.018996960486322188</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.05547112462006079</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.29711246200607905</v>
+        <v>0.08130699088145897</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.21656534954407294</v>
+        <v>0.1033434650455927</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.3738601823708207</v>
+        <v>0.03115501519756839</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.028875379939209727</v>
+        <v>0.7598784194528876</v>
       </c>
       <c r="C41" t="n" s="798">
+        <v>0.011398176291793313</v>
+      </c>
+      <c r="D41" t="n" s="799">
+        <v>0.013677811550151976</v>
+      </c>
+      <c r="E41" t="n" s="800">
+        <v>0.0790273556231003</v>
+      </c>
+      <c r="F41" t="n" s="801">
         <v>0.060790273556231005</v>
       </c>
-      <c r="D41" t="n" s="799">
-        <v>0.022796352583586626</v>
-      </c>
-      <c r="E41" t="n" s="800">
-        <v>0.36930091185410335</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.4338905775075988</v>
-      </c>
       <c r="G41" t="n" s="802">
-        <v>0.08434650455927052</v>
+        <v>0.07522796352583587</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.028875379939209727</v>
+        <v>0.04711246200607903</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.03343465045592705</v>
+        <v>0.952887537993921</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.0668693009118541</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3609422492401216</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.09346504559270517</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.41641337386018235</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.21504559270516718</v>
+        <v>0.04711246200607903</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.13221884498480244</v>
+        <v>0.0729483282674772</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.3191489361702128</v>
+        <v>0.00911854103343465</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.21200607902735563</v>
+        <v>0.37537993920972645</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.12158054711246201</v>
+        <v>0.4278115501519757</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.067629179331307</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.23556231003039513</v>
+        <v>0.04711246200607903</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.12234042553191489</v>
+        <v>0.009878419452887538</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.3791793313069909</v>
+        <v>0.05547112462006079</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.1778115501519757</v>
+        <v>0.29711246200607905</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.0851063829787234</v>
+        <v>0.21656534954407294</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.3738601823708207</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7598784194528876</v>
+        <v>0.45364741641337386</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.018996960486322188</v>
+        <v>0.13753799392097266</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.005319148936170213</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.08130699088145897</v>
+        <v>0.22948328267477203</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.1033434650455927</v>
+        <v>0.12613981762917933</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.03115501519756839</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7598784194528876</v>
+        <v>0.2013677811550152</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.011398176291793313</v>
+        <v>0.13297872340425532</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.013677811550151976</v>
+        <v>0.06838905775075987</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.0790273556231003</v>
+        <v>0.4399696048632219</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.060790273556231005</v>
+        <v>0.15729483282674772</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.07522796352583587</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.45364741641337386</v>
+        <v>0.21504559270516718</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.13753799392097266</v>
+        <v>0.13221884498480244</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05319148936170213</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.22948328267477203</v>
+        <v>0.21200607902735563</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.12613981762917933</v>
+        <v>0.12158054711246201</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.2013677811550152</v>
+        <v>0.23556231003039513</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.13297872340425532</v>
+        <v>0.12234042553191489</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.06838905775075987</v>
+        <v>0.3791793313069909</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4399696048632219</v>
+        <v>0.1778115501519757</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.15729483282674772</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
